--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352817.4174883605</v>
+        <v>355314.3114634982</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162198</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437308</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6557242.25245795</v>
+        <v>6384958.481058569</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>367.337594041663</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>312.5857266279815</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -789,7 +791,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>157.748445174862</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>56.12882701083657</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.398419227</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.338580986754753</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>91.24476425136032</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +986,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.74588807992508</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.307442615811</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>86.14767836534818</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>396.6425927105685</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>139.4572039408224</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1455,7 +1457,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475954</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>388.2474135039329</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>183.2814680955358</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6594333092506167</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1859,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>92.70049593282079</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>153.1384924275788</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2084,16 +2086,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>185.4786475827592</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>97.65088246589349</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919147</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>179.8522271547996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.86626593013755</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>212.633634696449</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2615,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>298.0721989747363</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G27" t="n">
         <v>105.9202115588047</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>77.88936725631361</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2776,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>40.3950232139772</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>173.0043725424048</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>61.29526474944497</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>70.90884974000087</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.2116771700283</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>16.71989485438554</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3171,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3253,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.4842654885187</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>187.232178558179</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>19.89843046229006</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>166.7165542762734</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.846919542391041</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>172.707591965686</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>42.05236239524869</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3721,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>281.0675905095286</v>
+        <v>388.2474135039329</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>140.5488181521908</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>70.36042284486155</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>285.3365116495305</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4110,16 +4112,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>69.12146513934103</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>49.12706634826603</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4144,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451.8896763163319</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4331,13 +4333,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
         <v>1014.011766457887</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1637.230048064121</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W2" t="n">
-        <v>1253.469747199289</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X2" t="n">
-        <v>852.8263493682418</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="Y2" t="n">
-        <v>451.8896763163319</v>
+        <v>1132.44994189861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
         <v>62.51367700936187</v>
@@ -4410,16 +4412,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>497.5713418949007</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
         <v>1192.007362767164</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1016.701348351886</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4516,22 +4518,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1016.701348351886</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1016.701348351886</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="X4" t="n">
-        <v>1016.701348351886</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1016.701348351886</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1585.866673278885</v>
+        <v>1277.096428763703</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.742082592155</v>
+        <v>866.9718380769729</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.742082592155</v>
+        <v>462.5079081700334</v>
       </c>
       <c r="E5" t="n">
-        <v>761.4018671090519</v>
+        <v>48.16769268693008</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4568,22 +4570,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4610,7 +4612,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1996.087852943375</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4632,40 +4634,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>843.6595175967814</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>684.1648729196913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.950756782464</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>1059.950756782464</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>1059.950756782464</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y7" t="n">
-        <v>1059.950756782464</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>946.9697231064266</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C8" t="n">
-        <v>536.8451324196967</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D8" t="n">
-        <v>536.8451324196967</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E8" t="n">
-        <v>536.8451324196967</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
         <v>2047.697635790537</v>
@@ -4844,10 +4846,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.674210597145</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4887,19 +4889,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.033101815613</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.908511128883</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="D11" t="n">
-        <v>863.4445812219433</v>
+        <v>1426.729859832673</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>1012.38964434957</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>591.3592323032572</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>182.6309481960893</v>
       </c>
       <c r="H11" t="n">
         <v>41.76508562960205</v>
@@ -5042,16 +5044,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M11" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="N11" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O11" t="n">
         <v>1530.854701124212</v>
@@ -5072,19 +5074,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
     </row>
     <row r="12">
@@ -5097,22 +5099,22 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
         <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
@@ -5124,22 +5126,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>1025.008892784822</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.008892784822</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O12" t="n">
-        <v>2058.694762117472</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C13" t="n">
         <v>960.0055634924552</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815613</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.033101815613</v>
+        <v>1045.702027075742</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>641.2380971688021</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>226.8978816856988</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5279,22 +5281,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N14" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
         <v>2047.697635790537</v>
@@ -5306,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5357,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M15" t="n">
+        <v>537.7254774811262</v>
+      </c>
+      <c r="N15" t="n">
         <v>1054.568412147451</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1571.411346813777</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
         <v>1571.411346813777</v>
@@ -5410,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C16" t="n">
         <v>960.0055634924552</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.588187228334</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D17" t="n">
-        <v>1683.124257321394</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>1268.784041838291</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>847.7536297919787</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
@@ -5516,22 +5518,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9505570973564</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L17" t="n">
-        <v>295.9505570973564</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M17" t="n">
-        <v>295.9505570973564</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N17" t="n">
-        <v>812.7934917636817</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O17" t="n">
-        <v>1329.636426430007</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
@@ -5595,22 +5597,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>209.0154767040586</v>
+        <v>460.9438912292982</v>
       </c>
       <c r="C19" t="n">
-        <v>209.0154767040586</v>
+        <v>460.9438912292982</v>
       </c>
       <c r="D19" t="n">
-        <v>209.0154767040586</v>
+        <v>460.9438912292982</v>
       </c>
       <c r="E19" t="n">
-        <v>209.0154767040586</v>
+        <v>300.0330760976177</v>
       </c>
       <c r="F19" t="n">
-        <v>209.0154767040586</v>
+        <v>135.4019502082089</v>
       </c>
       <c r="G19" t="n">
         <v>41.76508562960205</v>
@@ -5695,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T19" t="n">
-        <v>1416.478636364009</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U19" t="n">
-        <v>1133.680488910133</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V19" t="n">
-        <v>859.7947438496549</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="W19" t="n">
-        <v>859.7947438496549</v>
+        <v>924.02345198085</v>
       </c>
       <c r="X19" t="n">
-        <v>621.4508817093383</v>
+        <v>685.6795898405335</v>
       </c>
       <c r="Y19" t="n">
-        <v>396.715183098103</v>
+        <v>460.9438912292982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>866.9064694728561</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C20" t="n">
-        <v>456.7818787861262</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D20" t="n">
-        <v>52.31794887918674</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E20" t="n">
-        <v>52.31794887918674</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F20" t="n">
-        <v>52.31794887918674</v>
+        <v>432.537883599467</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>52.31794887918674</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L20" t="n">
-        <v>52.31794887918674</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M20" t="n">
-        <v>699.7525662591225</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N20" t="n">
-        <v>1347.187183639058</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O20" t="n">
-        <v>1765.579739244893</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2294.736437164045</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2428.545274683822</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2078.707720020303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2078.707720020303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>1678.064322189256</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>1277.127649137346</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M21" t="n">
-        <v>699.7525662591225</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N21" t="n">
-        <v>1347.187183639058</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>1994.621801018994</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.651799180323</v>
+        <v>1058.642818508509</v>
       </c>
       <c r="C22" t="n">
-        <v>970.5584267420397</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>811.0637820649497</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>650.1529669332692</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5218410438605</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>318.2714499694039</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H22" t="n">
-        <v>168.6639947748606</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.716845500037</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.716845500037</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X22" t="n">
-        <v>1554.087204185603</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="Y22" t="n">
-        <v>1329.351505574368</v>
+        <v>1246.342524902554</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2142.217603489457</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C23" t="n">
-        <v>1732.093012802727</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>1327.629082895788</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>913.2888674126843</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>492.2584553663719</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>337.7156427269584</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>399.9123486964811</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>1112.503748508719</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M23" t="n">
-        <v>1888.822339500473</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N23" t="n">
-        <v>2642.003356139091</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>3285.634212556196</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>3814.790910475348</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>4135.95191727064</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3994.839646642225</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3737.779154901735</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3737.779154901735</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>3354.018854036904</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>2953.375456205856</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2552.438783153946</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="L24" t="n">
-        <v>83.5301712592041</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M24" t="n">
-        <v>926.5072519537707</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.165344065389</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>681.8752593603509</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>681.8752593603509</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>522.380614683261</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>361.4697995515805</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>361.4697995515805</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>349.4836723494213</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>199.876217154878</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.380328856756</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1373.380328856756</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1373.380328856756</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.310664365631</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.310664365631</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.5749657543953</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>439.0253456848109</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C26" t="n">
-        <v>439.0253456848109</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D26" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E26" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F26" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G26" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
         <v>41.76508562960205</v>
@@ -6227,22 +6229,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L26" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M26" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="N26" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L26" t="n">
-        <v>1329.636426430007</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1846.479361096332</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2047.697635790537</v>
-      </c>
       <c r="O26" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6251,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221062</v>
+        <v>1873.47283229177</v>
       </c>
       <c r="U26" t="n">
-        <v>1473.706230480572</v>
+        <v>1616.41234055128</v>
       </c>
       <c r="V26" t="n">
-        <v>1123.868675817053</v>
+        <v>1266.574785887761</v>
       </c>
       <c r="W26" t="n">
-        <v>740.1083749522213</v>
+        <v>1266.574785887761</v>
       </c>
       <c r="X26" t="n">
-        <v>439.0253456848109</v>
+        <v>1266.574785887761</v>
       </c>
       <c r="Y26" t="n">
-        <v>439.0253456848109</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
         <v>240.2510026593071</v>
@@ -6306,25 +6308,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K27" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L27" t="n">
-        <v>1014.414276561226</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M27" t="n">
-        <v>1531.257211227551</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>605.7731676935686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>434.6797952552851</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>434.6797952552851</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>434.6797952552851</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>270.0486693658763</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>270.0486693658763</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>120.441214171333</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
         <v>41.76508562960205</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.278237189974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.208572698848</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.208572698848</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.4728740876129</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1368.000135152739</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C29" t="n">
-        <v>957.8755444660092</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="D29" t="n">
-        <v>957.8755444660092</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="E29" t="n">
-        <v>957.8755444660092</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="F29" t="n">
-        <v>536.8451324196967</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="G29" t="n">
-        <v>128.1168483125289</v>
+        <v>82.56813938109417</v>
       </c>
       <c r="H29" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
         <v>41.76508562960205</v>
@@ -6467,19 +6469,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M29" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N29" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6488,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>1778.221314817228</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>1778.221314817228</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>1778.221314817228</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1778.221314817228</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X29" t="n">
-        <v>1778.221314817228</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y29" t="n">
-        <v>1778.221314817228</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
         <v>41.76508562960205</v>
@@ -6549,16 +6551,16 @@
         <v>1014.414276561226</v>
       </c>
       <c r="M30" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N30" t="n">
-        <v>2048.100145893876</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="C31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="D31" t="n">
-        <v>588.5395825927103</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>427.6287674610298</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>262.997641571621</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
         <v>41.76508562960205</v>
@@ -6655,16 +6657,16 @@
         <v>862.4253276531883</v>
       </c>
       <c r="V31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="Y31" t="n">
-        <v>588.5395825927103</v>
+        <v>862.4253276531883</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>446.2290155365415</v>
+        <v>1294.272800950781</v>
       </c>
       <c r="C32" t="n">
-        <v>446.2290155365415</v>
+        <v>884.1482102640515</v>
       </c>
       <c r="D32" t="n">
-        <v>41.76508562960205</v>
+        <v>479.684280357112</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960205</v>
+        <v>479.684280357112</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>58.65386831079957</v>
       </c>
       <c r="G32" t="n">
         <v>41.76508562960205</v>
@@ -6698,28 +6700,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L32" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M32" t="n">
-        <v>1846.479361096332</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N32" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6731,19 +6733,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1481.356235076093</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X32" t="n">
-        <v>1080.712837245046</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y32" t="n">
-        <v>679.7761641931357</v>
+        <v>1704.493980615271</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K33" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L33" t="n">
-        <v>1207.227134123859</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="M33" t="n">
-        <v>1541.851827451147</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O33" t="n">
-        <v>1541.851827451147</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6813,10 +6815,10 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>367.3070266506913</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C34" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
         <v>41.76508562960205</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U34" t="n">
-        <v>1299.499495805762</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V34" t="n">
-        <v>1025.613750745284</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W34" t="n">
-        <v>746.5440862541582</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X34" t="n">
-        <v>508.2002241138416</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.3070266506913</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1465.111124375051</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C35" t="n">
-        <v>1275.987711690022</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D35" t="n">
-        <v>871.5237817830823</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
         <v>41.76508562960205</v>
@@ -6935,25 +6937,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L35" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M35" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N35" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O35" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6965,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>1866.047797426961</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y35" t="n">
-        <v>1465.111124375051</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M36" t="n">
-        <v>187.8810127971426</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N36" t="n">
-        <v>704.7239474634679</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O36" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>884.5196047829022</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>713.4262323446187</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I37" t="n">
         <v>558.8553848592519</v>
@@ -7117,28 +7119,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S37" t="n">
-        <v>1816.589795035412</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T37" t="n">
-        <v>1648.189235160388</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U37" t="n">
-        <v>1648.189235160388</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V37" t="n">
-        <v>1648.189235160388</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="W37" t="n">
-        <v>1648.189235160388</v>
+        <v>1535.298871928499</v>
       </c>
       <c r="X37" t="n">
-        <v>1648.189235160388</v>
+        <v>1296.955009788182</v>
       </c>
       <c r="Y37" t="n">
-        <v>1648.189235160388</v>
+        <v>1072.219311176947</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.096428763703</v>
+        <v>935.8539802057044</v>
       </c>
       <c r="C38" t="n">
-        <v>866.9718380769729</v>
+        <v>935.8539802057044</v>
       </c>
       <c r="D38" t="n">
-        <v>866.9718380769729</v>
+        <v>935.8539802057044</v>
       </c>
       <c r="E38" t="n">
-        <v>860.0557577311233</v>
+        <v>935.8539802057044</v>
       </c>
       <c r="F38" t="n">
-        <v>439.0253456848109</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G38" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
         <v>41.76508562960205</v>
@@ -7181,7 +7183,7 @@
         <v>295.9505570973564</v>
       </c>
       <c r="M38" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N38" t="n">
         <v>692.8507596625949</v>
@@ -7199,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y38" t="n">
-        <v>1687.317608428192</v>
+        <v>1346.075159870194</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>1014.414276561226</v>
       </c>
       <c r="M39" t="n">
-        <v>1221.566882129793</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.566882129793</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O39" t="n">
         <v>1221.566882129793</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>350.1957204523937</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>350.1957204523937</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>350.1957204523937</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>350.1957204523937</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>350.1957204523937</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
         <v>41.76508562960205</v>
@@ -7357,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1145.223475107064</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U40" t="n">
-        <v>862.4253276531883</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V40" t="n">
-        <v>588.5395825927103</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W40" t="n">
-        <v>588.5395825927103</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X40" t="n">
-        <v>350.1957204523937</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y40" t="n">
-        <v>350.1957204523937</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.9320027651428</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C41" t="n">
-        <v>722.9320027651428</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="D41" t="n">
-        <v>439.0253456848109</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E41" t="n">
-        <v>439.0253456848109</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F41" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N41" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O41" t="n">
         <v>2047.697635790537</v>
@@ -7436,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.9320027651428</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>537.7254774811266</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M42" t="n">
-        <v>537.7254774811266</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N42" t="n">
-        <v>1054.568412147452</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1101.974066676486</v>
+        <v>718.3500295363419</v>
       </c>
       <c r="C43" t="n">
-        <v>960.0055634924552</v>
+        <v>718.3500295363419</v>
       </c>
       <c r="D43" t="n">
-        <v>800.5109188153651</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E43" t="n">
-        <v>639.6001036836846</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F43" t="n">
-        <v>474.9689777942758</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1384.772214130362</v>
+        <v>2017.183147293373</v>
       </c>
       <c r="U43" t="n">
-        <v>1101.974066676486</v>
+        <v>1734.384999839498</v>
       </c>
       <c r="V43" t="n">
-        <v>1101.974066676486</v>
+        <v>1460.49925477902</v>
       </c>
       <c r="W43" t="n">
-        <v>1101.974066676486</v>
+        <v>1181.429590287894</v>
       </c>
       <c r="X43" t="n">
-        <v>1101.974066676486</v>
+        <v>943.0857281475772</v>
       </c>
       <c r="Y43" t="n">
-        <v>1101.974066676486</v>
+        <v>718.3500295363419</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>425.3059392994284</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C44" t="n">
-        <v>425.3059392994284</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D44" t="n">
-        <v>425.3059392994284</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E44" t="n">
-        <v>425.3059392994284</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F44" t="n">
-        <v>425.3059392994284</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>285.3976938477716</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>671.6489458004863</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M44" t="n">
-        <v>671.6489458004863</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N44" t="n">
-        <v>1057.900197753201</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O44" t="n">
-        <v>1444.151449705916</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P44" t="n">
-        <v>1444.151449705916</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.611119000868</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X44" t="n">
-        <v>1166.517402081457</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="Y44" t="n">
-        <v>772.4236851620456</v>
+        <v>451.8896763163319</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>610.2763318953653</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>794.9558830015396</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>794.9558830015396</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N45" t="n">
-        <v>794.9558830015396</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
-        <v>794.9558830015396</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1223.459583545274</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1009.748056538308</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1009.748056538308</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.546072681154</v>
+        <v>411.7938447800554</v>
       </c>
       <c r="C46" t="n">
-        <v>949.4527002428704</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D46" t="n">
-        <v>789.9580555657803</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T46" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U46" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V46" t="n">
-        <v>1560.611119000868</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.611119000868</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X46" t="n">
-        <v>1532.981477686434</v>
+        <v>411.7938447800554</v>
       </c>
       <c r="Y46" t="n">
-        <v>1308.245779075198</v>
+        <v>411.7938447800554</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>553.2940084590249</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -8058,19 +8060,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>173.8482690683349</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>232.5803491573234</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8216,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>553.2940084590249</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8234,7 +8236,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8301,10 +8303,10 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>395.5690244730516</v>
       </c>
       <c r="N6" t="n">
-        <v>262.4384495236163</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8313,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O8" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8535,22 +8537,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>395.5690244730517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428707</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8690,19 +8692,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O11" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
         <v>615.7129336509097</v>
@@ -8772,7 +8774,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>394.1192645454833</v>
+        <v>70.59911775623726</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8781,16 +8783,16 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L14" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9003,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>423.9773649117757</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>558.5343765177347</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
         <v>576.3232053728293</v>
@@ -9164,25 +9166,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>266.9965351298658</v>
       </c>
       <c r="P18" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9401,28 +9403,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>746.8866517464535</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>515.8085186619799</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>159.4973559226951</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>151.9613451979876</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>362.0354133794547</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9875,25 +9877,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9954,16 +9956,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>527.2265162238739</v>
       </c>
       <c r="M27" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O27" t="n">
         <v>579.8150493700256</v>
@@ -9975,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,22 +10117,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10197,19 +10199,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>266.8093398682838</v>
       </c>
       <c r="N30" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>98.31121191537929</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
@@ -10370,7 +10372,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>203.7063694346274</v>
       </c>
       <c r="M33" t="n">
-        <v>395.5690244730516</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>496.3946935832878</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10665,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>205.1561293621958</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>237.1384347635729</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N38" t="n">
-        <v>493.8215862770623</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
         <v>615.2533459958087</v>
@@ -10908,13 +10910,13 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>266.8093398682832</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>266.9965351298658</v>
       </c>
       <c r="P39" t="n">
         <v>576.3232053728293</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
         <v>617.5489684328704</v>
@@ -11069,10 +11071,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O41" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>532.4592375477433</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11297,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.7035252126741</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11376,10 +11378,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>242.6595249281969</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11391,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22547,22 +22549,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>42.85921928660929</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>33.75345248890261</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22707,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>113.2536117030641</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>41.88054861921438</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22787,19 +22789,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>410.4815269390945</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22850,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>305.6825420700305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>141.0768212501789</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.81152525203356</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>319.8756664145144</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>13.55422061770378</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>168.3422084577368</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23312,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23479,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>12.17187710393716</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>233.5386398303135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23546,7 +23548,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C17" t="n">
-        <v>405.3639114706119</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23896,13 +23898,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.87739123089122</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>84.01475920548614</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24023,19 +24025,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>69.01123924032578</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>71.73155624800717</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24190,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>17.77593127592985</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>40.13219205781013</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>153.7116212335744</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24458,10 +24460,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.350784516160786</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>98.56476487800069</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24610,16 +24612,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>37.2932181804035</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24689,16 +24691,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>267.404389184582</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>46.98004667020493</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24740,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,7 +24843,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>96.60443348087411</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>94.66903742371113</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>174.9072906978163</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,10 +24928,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>387.9211064117106</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24971,19 +24973,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.00407613660423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>218.7911662216836</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>390.2983828659822</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25205,7 +25207,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -25217,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>4.874559219805946</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>70.43669735679151</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>403.3498937858812</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>244.1125159601633</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25457,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25561,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>123.5255247684633</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>119.3517000983414</v>
+        <v>12.17187710393716</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25694,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>28.83362056170989</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7928287882034</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>62.47239946385355</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25877,7 +25879,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>111.3004522032065</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25998,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>126.2558376138224</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.2553723656346</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26077,19 +26079,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552182.8765474862</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552182.8765474859</v>
+        <v>552182.8765474861</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552182.8765474861</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>552182.8765474861</v>
+        <v>552182.8765474862</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552182.8765474862</v>
+        <v>552182.8765474861</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611330.6656640491</v>
+        <v>552182.8765474862</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>786272.1866076845</v>
+        <v>552182.8765474861</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552182.8765474859</v>
+        <v>552182.8765474858</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>552182.8765474861</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552182.8765474859</v>
+        <v>552182.8765474861</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>552182.8765474859</v>
+        <v>552182.8765474862</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461529.2299115475</v>
+        <v>552182.8765474861</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>142694.2606395789</v>
       </c>
       <c r="E2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="F2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="G2" t="n">
         <v>142694.2606395788</v>
       </c>
       <c r="H2" t="n">
-        <v>157975.0546172638</v>
+        <v>142694.2606395789</v>
       </c>
       <c r="I2" t="n">
-        <v>203171.0861107549</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="J2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="K2" t="n">
         <v>142694.2606395789</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>142694.2606395788</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>142694.2606395789</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>142694.2606395788</v>
-      </c>
-      <c r="N2" t="n">
-        <v>142694.2606395789</v>
       </c>
       <c r="O2" t="n">
         <v>142694.2606395789</v>
       </c>
       <c r="P2" t="n">
-        <v>119273.94826172</v>
+        <v>142694.2606395788</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="D4" t="n">
         <v>29404.49246814041</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29404.49246814042</v>
       </c>
       <c r="E4" t="n">
         <v>29404.49246814042</v>
@@ -26430,16 +26432,16 @@
         <v>29404.49246814042</v>
       </c>
       <c r="G4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="I4" t="n">
         <v>29404.49246814041</v>
       </c>
-      <c r="H4" t="n">
-        <v>32585.06789049297</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41992.26146734449</v>
-      </c>
       <c r="J4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="K4" t="n">
         <v>29404.49246814042</v>
@@ -26448,16 +26450,16 @@
         <v>29404.49246814042</v>
       </c>
       <c r="M4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="N4" t="n">
         <v>29404.49246814041</v>
       </c>
-      <c r="N4" t="n">
-        <v>29404.49246814042</v>
-      </c>
       <c r="O4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="P4" t="n">
-        <v>24529.74119267544</v>
+        <v>29404.49246814041</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-127034.8068001732</v>
       </c>
       <c r="C6" t="n">
-        <v>47920.70309294087</v>
+        <v>47920.70309294084</v>
       </c>
       <c r="D6" t="n">
-        <v>47920.70309294092</v>
+        <v>47920.7030929409</v>
       </c>
       <c r="E6" t="n">
-        <v>81548.3030929409</v>
+        <v>81548.30309294087</v>
       </c>
       <c r="F6" t="n">
-        <v>81548.30309294096</v>
+        <v>81548.30309294087</v>
       </c>
       <c r="G6" t="n">
         <v>81548.30309294087</v>
       </c>
       <c r="H6" t="n">
-        <v>50037.62707224896</v>
+        <v>81548.3030929409</v>
       </c>
       <c r="I6" t="n">
-        <v>-6053.922857542144</v>
+        <v>81548.30309294087</v>
       </c>
       <c r="J6" t="n">
+        <v>-55046.49771295409</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81548.30309294093</v>
+      </c>
+      <c r="L6" t="n">
+        <v>81548.30309294084</v>
+      </c>
+      <c r="M6" t="n">
         <v>81548.3030929409</v>
       </c>
-      <c r="K6" t="n">
-        <v>81548.30309294087</v>
-      </c>
-      <c r="L6" t="n">
-        <v>81548.3030929409</v>
-      </c>
-      <c r="M6" t="n">
-        <v>81548.30309294087</v>
-      </c>
       <c r="N6" t="n">
-        <v>81548.3030929409</v>
+        <v>81548.30309294084</v>
       </c>
       <c r="O6" t="n">
         <v>81548.3030929409</v>
       </c>
       <c r="P6" t="n">
-        <v>71022.91806023134</v>
+        <v>81548.30309294081</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700256</v>
@@ -26829,7 +26831,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>460.0037840019794</v>
-      </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>179.3869557635734</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -34954,7 +34956,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35021,10 +35023,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="N6" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O8" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>338.0047407346343</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>460.0037840019794</v>
       </c>
       <c r="P11" t="n">
         <v>522.0635703700256</v>
@@ -35492,7 +35494,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>338.0047407346343</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="L14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>500.9700927793173</v>
+      </c>
+      <c r="N15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
         <v>522.0635703700256</v>
@@ -35884,25 +35886,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>209.2450561298658</v>
+      </c>
+      <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N18" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O18" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P18" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>422.6187430361967</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>105.2377209198914</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>62.82495552477043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.2096305948393</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P26" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M26" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N26" t="n">
-        <v>203.2507825193993</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130248</v>
       </c>
       <c r="M27" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O27" t="n">
         <v>522.0635703700256</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36917,19 +36919,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="N30" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,23 +37068,23 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N32" t="n">
-        <v>244.2170912967376</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>147.5918456237783</v>
+      </c>
+      <c r="M33" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M33" t="n">
-        <v>338.0047407346341</v>
-      </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>147.5918456237783</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,10 +37551,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N38" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>522.0635703700256</v>
@@ -37628,13 +37630,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>209.2450561298658</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>522.0635703700256</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
         <v>522.0635703700256</v>
@@ -37789,10 +37791,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O41" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>474.8949538093259</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q44" t="n">
-        <v>76.66972081352203</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38096,10 +38098,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>186.5450011173479</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>355314.3114634982</v>
+        <v>349584.9156322713</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763805</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>367.337594041663</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>286.3894566163201</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.748445174862</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>146.0446214942</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>234.398419227</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>6.338580986754753</v>
+        <v>36.3171777535495</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -986,7 +986,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>106.1748942718924</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>42.43741174507631</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>86.14767836534818</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>282.8053997497795</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1378,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>135.1381867247434</v>
       </c>
       <c r="H11" t="n">
-        <v>139.4572039408224</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>98.94574135710867</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -1548,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>115.9077781294363</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>183.2814680955358</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>42.33876725084211</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.94574135710867</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.04842478218836</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>92.70049593282079</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>386.8650699901663</v>
+        <v>282.8053997497795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>29.06736062834933</v>
       </c>
       <c r="C22" t="n">
-        <v>97.65088246589349</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>224.2419637676909</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.5952110672383</v>
+        <v>27.77250173713433</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>12.39895880731897</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>212.633634696449</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2617,10 +2617,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>105.9202115588047</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>40.3950232139772</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>50.37081582297198</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.29526474944497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3009,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.71989485438554</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>201.2306101071993</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0251390105127</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>19.89843046229006</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>19.36461078061437</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>153.0251390105131</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>38.12750047194527</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>172.707591965686</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>140.7894513785118</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>42.43741174507631</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>388.2474135039329</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>24.01015576440015</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>70.36042284486155</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>210.8770041692172</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>285.3365116495305</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.12706634826603</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>58.87768236127958</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1132.44994189861</v>
+        <v>741.1719557267563</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.44994189861</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="D2" t="n">
-        <v>1132.44994189861</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="E2" t="n">
-        <v>761.4018671090519</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,16 +4330,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
         <v>1014.011766457887</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1516.210242763442</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1132.44994189861</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1132.44994189861</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1132.44994189861</v>
+        <v>1151.393135391246</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>158.3214934345131</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>1724.070068790185</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>266.5007842408373</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X4" t="n">
-        <v>266.5007842408373</v>
+        <v>350.1957204523937</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>350.1957204523937</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.096428763703</v>
+        <v>902.9139097323135</v>
       </c>
       <c r="C5" t="n">
-        <v>866.9718380769729</v>
+        <v>492.7893190455836</v>
       </c>
       <c r="D5" t="n">
-        <v>462.5079081700334</v>
+        <v>492.7893190455836</v>
       </c>
       <c r="E5" t="n">
-        <v>48.16769268693008</v>
+        <v>78.44910356248033</v>
       </c>
       <c r="F5" t="n">
         <v>41.76508562960205</v>
@@ -4567,16 +4567,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N5" t="n">
         <v>692.8507596625949</v>
@@ -4606,13 +4606,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.317608428192</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4634,40 +4634,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1541.851827451147</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>640.3886152219638</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>640.3886152219638</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>480.8939705448739</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>480.8939705448739</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>316.2628446554651</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>149.0124535810085</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>149.0124535810085</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1528.297909780678</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>1245.499762326802</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V7" t="n">
-        <v>971.614017266324</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="W7" t="n">
-        <v>692.5443527751984</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="X7" t="n">
-        <v>454.2004906348818</v>
+        <v>828.0883216160082</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>828.0883216160082</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2088.254281480102</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="C8" t="n">
-        <v>2001.236424545407</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="D8" t="n">
-        <v>1596.772494638468</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.432279155364</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G8" t="n">
         <v>352.673583001884</v>
@@ -4807,22 +4807,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1188.0442105313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>1188.0442105313</v>
       </c>
     </row>
     <row r="9">
@@ -4892,19 +4892,19 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433489</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4992,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1831.193789739612</v>
+        <v>979.9924945056326</v>
       </c>
       <c r="C11" t="n">
-        <v>1831.193789739612</v>
+        <v>979.9924945056326</v>
       </c>
       <c r="D11" t="n">
-        <v>1426.729859832673</v>
+        <v>575.5285645986932</v>
       </c>
       <c r="E11" t="n">
-        <v>1012.38964434957</v>
+        <v>575.5285645986932</v>
       </c>
       <c r="F11" t="n">
-        <v>591.3592323032572</v>
+        <v>575.5285645986932</v>
       </c>
       <c r="G11" t="n">
-        <v>182.6309481960893</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M11" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N11" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O11" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>1831.193789739612</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V11" t="n">
-        <v>1831.193789739612</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W11" t="n">
-        <v>1831.193789739612</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X11" t="n">
-        <v>1831.193789739612</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y11" t="n">
-        <v>1831.193789739612</v>
+        <v>979.9924945056326</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
@@ -5126,19 +5126,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M12" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N12" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1059.950756782464</v>
+        <v>855.2582453579748</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1267.693650363255</v>
       </c>
       <c r="U13" t="n">
-        <v>1059.950756782464</v>
+        <v>1267.693650363255</v>
       </c>
       <c r="V13" t="n">
-        <v>1059.950756782464</v>
+        <v>1267.693650363255</v>
       </c>
       <c r="W13" t="n">
-        <v>1059.950756782464</v>
+        <v>1267.693650363255</v>
       </c>
       <c r="X13" t="n">
-        <v>1059.950756782464</v>
+        <v>1267.693650363255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1059.950756782464</v>
+        <v>1042.957951752019</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1455.826617762472</v>
+        <v>919.902144725525</v>
       </c>
       <c r="C14" t="n">
-        <v>1045.702027075742</v>
+        <v>919.902144725525</v>
       </c>
       <c r="D14" t="n">
-        <v>641.2380971688021</v>
+        <v>919.902144725525</v>
       </c>
       <c r="E14" t="n">
-        <v>226.8978816856988</v>
+        <v>505.5619292424217</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>84.53151719610923</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5278,52 +5278,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L14" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M14" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N14" t="n">
-        <v>1726.536628995245</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O14" t="n">
-        <v>1726.536628995245</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P14" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V14" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W14" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X14" t="n">
-        <v>1866.047797426961</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y14" t="n">
-        <v>1866.047797426961</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M15" t="n">
-        <v>537.7254774811262</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N15" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
         <v>1571.411346813777</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1059.950756782464</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>1059.950756782464</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>1059.950756782464</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>1059.950756782464</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1695.988587952916</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C17" t="n">
-        <v>1285.863997266186</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>505.2686540215593</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>84.23824197524686</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>84.23824197524686</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>84.23824197524686</v>
       </c>
       <c r="I17" t="n">
         <v>41.76508562960205</v>
@@ -5518,13 +5518,13 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M17" t="n">
-        <v>1530.854701124212</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N17" t="n">
         <v>2047.697635790537</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>460.9438912292982</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>460.9438912292982</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>460.9438912292982</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>300.0330760976177</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>135.4019502082089</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
         <v>41.76508562960205</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1203.093116471976</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1203.093116471976</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>924.02345198085</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>685.6795898405335</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.9438912292982</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.033101815613</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="C20" t="n">
-        <v>1267.908511128883</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="D20" t="n">
-        <v>1267.908511128883</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="E20" t="n">
-        <v>853.5682956457795</v>
+        <v>1059.366014997469</v>
       </c>
       <c r="F20" t="n">
-        <v>432.537883599467</v>
+        <v>638.3356029511563</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
         <v>41.76508562960205</v>
@@ -5752,52 +5752,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N20" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>537.7254774811266</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147452</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N21" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1058.642818508509</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
         <v>41.76508562960205</v>
@@ -5934,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1246.342524902554</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>1246.342524902554</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V22" t="n">
-        <v>1246.342524902554</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W22" t="n">
-        <v>1246.342524902554</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X22" t="n">
-        <v>1246.342524902554</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y22" t="n">
-        <v>1246.342524902554</v>
+        <v>71.12605596126804</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.988587952916</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G23" t="n">
         <v>41.76508562960205</v>
@@ -5989,52 +5989,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O23" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>689.3025317846932</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>462.7954976759145</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>537.7254774811262</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M24" t="n">
-        <v>1571.411346813777</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N24" t="n">
-        <v>2088.254281480102</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.254281480102</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6192,7 +6192,7 @@
         <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>856.3536062232714</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="C26" t="n">
-        <v>446.2290155365415</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="D26" t="n">
-        <v>41.76508562960205</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960205</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L26" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M26" t="n">
-        <v>295.9505570973564</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N26" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O26" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1873.47283229177</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U26" t="n">
-        <v>1616.41234055128</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V26" t="n">
-        <v>1266.574785887761</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W26" t="n">
-        <v>1266.574785887761</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X26" t="n">
-        <v>1266.574785887761</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y26" t="n">
-        <v>1266.574785887761</v>
+        <v>561.671461174315</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
         <v>469.7036984844747</v>
@@ -6293,40 +6293,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>508.1659581184966</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.008892784822</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N27" t="n">
-        <v>1541.851827451147</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O27" t="n">
-        <v>2058.694762117472</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6408,25 +6408,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
         <v>41.76508562960205</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>492.6927300678241</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="C29" t="n">
-        <v>82.56813938109417</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="D29" t="n">
-        <v>82.56813938109417</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="E29" t="n">
-        <v>82.56813938109417</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="F29" t="n">
-        <v>82.56813938109417</v>
+        <v>403.55319494428</v>
       </c>
       <c r="G29" t="n">
-        <v>82.56813938109417</v>
+        <v>403.55319494428</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>92.64469757199799</v>
       </c>
       <c r="I29" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.493980615271</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X29" t="n">
-        <v>1303.850582784223</v>
+        <v>824.5836069905924</v>
       </c>
       <c r="Y29" t="n">
-        <v>902.9139097323135</v>
+        <v>824.5836069905924</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1221.566882129794</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N30" t="n">
-        <v>1738.409816796119</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O30" t="n">
-        <v>1738.409816796119</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P30" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>862.4253276531883</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>862.4253276531883</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
         <v>41.76508562960205</v>
@@ -6648,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>862.4253276531883</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>862.4253276531883</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>862.4253276531883</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.4253276531883</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1294.272800950781</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="C32" t="n">
-        <v>884.1482102640515</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="D32" t="n">
-        <v>479.684280357112</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E32" t="n">
-        <v>479.684280357112</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F32" t="n">
-        <v>58.65386831079957</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N32" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6727,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.493980615271</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.493980615271</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="Y32" t="n">
-        <v>1704.493980615271</v>
+        <v>536.8451324196967</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>187.8810127971426</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>704.7239474634679</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O33" t="n">
-        <v>1738.409816796118</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P33" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
         <v>2088.254281480102</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.8584580678856</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
         <v>41.76508562960205</v>
@@ -6888,22 +6888,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.593134765086</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1142.707389704608</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>863.6377252134819</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>625.2938630731653</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>400.5581644619299</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.4530309326553</v>
+        <v>1257.829491074854</v>
       </c>
       <c r="C35" t="n">
-        <v>466.3284402459254</v>
+        <v>1257.829491074854</v>
       </c>
       <c r="D35" t="n">
-        <v>61.86451033898595</v>
+        <v>853.3655611679142</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6976,13 +6976,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.694068570391</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.610883649055</v>
+        <v>1668.050670739343</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.674210597145</v>
+        <v>1668.050670739343</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.414276561226</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N36" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O36" t="n">
-        <v>1708.850297433488</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>884.5196047829022</v>
+        <v>544.7399750317509</v>
       </c>
       <c r="C37" t="n">
-        <v>713.4262323446187</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D37" t="n">
-        <v>558.8553848592519</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E37" t="n">
-        <v>558.8553848592519</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F37" t="n">
-        <v>558.8553848592519</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.254281480102</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V37" t="n">
-        <v>1814.368536419624</v>
+        <v>1249.853208057237</v>
       </c>
       <c r="W37" t="n">
-        <v>1535.298871928499</v>
+        <v>970.7835435661118</v>
       </c>
       <c r="X37" t="n">
-        <v>1296.955009788182</v>
+        <v>732.4396814257952</v>
       </c>
       <c r="Y37" t="n">
-        <v>1072.219311176947</v>
+        <v>732.4396814257952</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>935.8539802057044</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="C38" t="n">
-        <v>935.8539802057044</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D38" t="n">
-        <v>935.8539802057044</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E38" t="n">
-        <v>935.8539802057044</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F38" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G38" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
         <v>41.76508562960205</v>
@@ -7177,25 +7177,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M38" t="n">
-        <v>692.8507596625949</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N38" t="n">
-        <v>692.8507596625949</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O38" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>1695.912714533713</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V38" t="n">
-        <v>1346.075159870194</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W38" t="n">
-        <v>1346.075159870194</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X38" t="n">
-        <v>1346.075159870194</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="Y38" t="n">
-        <v>1346.075159870194</v>
+        <v>854.9572996437093</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N39" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O39" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1528.297909780678</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.499762326802</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>971.614017266324</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>692.5443527751984</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>454.2004906348818</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.033101815613</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.033101815613</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.863997266186</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>66.01776821990524</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>66.01776821990524</v>
       </c>
       <c r="I41" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L41" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M41" t="n">
-        <v>1846.479361096332</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N41" t="n">
-        <v>2047.697635790537</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O41" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>474.7460523270731</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
         <v>41.76508562960205</v>
@@ -7493,22 +7493,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.3500295363419</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>718.3500295363419</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>2017.183147293373</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.384999839498</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1460.49925477902</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1181.429590287894</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>943.0857281475772</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>718.3500295363419</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>451.8896763163319</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960205</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960205</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960205</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
         <v>41.76508562960205</v>
@@ -7654,16 +7654,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M44" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N44" t="n">
-        <v>812.7934917636817</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O44" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
         <v>1726.536628995245</v>
@@ -7684,16 +7684,16 @@
         <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.868675817053</v>
+        <v>1260.699155562171</v>
       </c>
       <c r="W44" t="n">
-        <v>740.1083749522213</v>
+        <v>1260.699155562171</v>
       </c>
       <c r="X44" t="n">
-        <v>451.8896763163319</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="Y44" t="n">
-        <v>451.8896763163319</v>
+        <v>860.0557577311233</v>
       </c>
     </row>
     <row r="45">
@@ -7742,13 +7742,13 @@
         <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>411.7938447800554</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C46" t="n">
-        <v>362.1705454383725</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>202.6759007612826</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
         <v>41.76508562960205</v>
@@ -7830,28 +7830,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1485.891263925851</v>
+        <v>1511.691575824917</v>
       </c>
       <c r="U46" t="n">
-        <v>1203.093116471976</v>
+        <v>1228.893428371041</v>
       </c>
       <c r="V46" t="n">
-        <v>929.2073714114977</v>
+        <v>955.0076833105632</v>
       </c>
       <c r="W46" t="n">
-        <v>650.137706920372</v>
+        <v>675.9380188194375</v>
       </c>
       <c r="X46" t="n">
-        <v>411.7938447800554</v>
+        <v>437.5941566791208</v>
       </c>
       <c r="Y46" t="n">
-        <v>411.7938447800554</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>173.8482690683349</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>67.67798733913774</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
@@ -8224,10 +8224,10 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5690244730516</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>262.4384495236163</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>296.1630732760186</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8540,13 +8540,13 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N9" t="n">
-        <v>559.8834573428707</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P11" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8774,13 +8774,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>70.59911775623726</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8789,7 +8789,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>224.7351163062146</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>423.9773649117762</v>
       </c>
       <c r="M15" t="n">
-        <v>558.5343765177347</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>576.3232053728293</v>
@@ -9166,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>292.3871721926164</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
         <v>617.5489684328704</v>
@@ -9175,7 +9175,7 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9257,7 +9257,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>266.9965351298658</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>576.3232053728293</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>549.1401736751965</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9424,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>557.0846165901669</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>362.0354133794547</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>575.2569637637755</v>
@@ -9734,10 +9734,10 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>362.9022490996778</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
         <v>615.7129336509097</v>
@@ -9898,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>527.2265162238739</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>532.6464328093264</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
@@ -10199,16 +10199,16 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>266.8093398682838</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>555.4891820648243</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M32" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>203.7063694346274</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277625</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>237.1384347635729</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
@@ -10916,13 +10916,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>266.9965351298658</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P39" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>532.4592375477433</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11302,7 +11302,7 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
@@ -11311,10 +11311,10 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P45" t="n">
-        <v>560.9496989519245</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>42.85921928660929</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>118.251544649776</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>39.77808783590396</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22713,7 +22713,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.88054861921438</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.4815269390945</v>
+        <v>380.5029301722998</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22846,10 +22846,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>9.007691164824692</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,10 +22992,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7158398879886</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>319.8756664145144</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>63.53377936710461</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,19 +23232,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.5028145413527</v>
       </c>
       <c r="H11" t="n">
-        <v>168.3422084577368</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.43669735679198</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>121.2454735036286</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23484,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>233.5386398303135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>362.302234015254</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>70.43669735679198</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>43.43982027390921</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>72.87739123089122</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>17.77593127592979</v>
+        <v>121.8356015163166</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.7553487017546</v>
       </c>
       <c r="C22" t="n">
-        <v>71.73155624800717</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>172.6853425536999</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.89313055788466</v>
+        <v>194.7158398879886</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>393.7200090605256</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24463,7 +24463,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.350784516160786</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24691,16 +24691,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>267.404389184582</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>35.11742923312558</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>96.60443348087411</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>387.9211064117106</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>195.4063537455376</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.9450269688244</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.2983828659822</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25171,10 +25171,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>360.5580870755687</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.874559219805946</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25368,10 +25368,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>233.019387137928</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>244.1125159601633</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>255.8475124742252</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>194.7158398879886</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>12.17187710393716</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>61.47808929169742</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>166.7928287882034</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>135.4621749476669</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>111.3004522032065</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26025,13 +26025,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2553723656346</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>178.2755692717853</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552182.8765474859</v>
+        <v>552182.8765474862</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>552182.8765474862</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>552182.8765474861</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>552182.8765474862</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>552182.8765474861</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552182.8765474862</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>552182.8765474858</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552182.8765474861</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>552182.8765474862</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>552182.8765474861</v>
+        <v>552182.8765474859</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>142694.2606395789</v>
       </c>
       <c r="C2" t="n">
+        <v>142694.2606395789</v>
+      </c>
+      <c r="D2" t="n">
         <v>142694.2606395788</v>
-      </c>
-      <c r="D2" t="n">
-        <v>142694.2606395789</v>
       </c>
       <c r="E2" t="n">
         <v>142694.2606395788</v>
@@ -26331,16 +26331,16 @@
         <v>142694.2606395788</v>
       </c>
       <c r="H2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="I2" t="n">
         <v>142694.2606395789</v>
-      </c>
-      <c r="I2" t="n">
-        <v>142694.2606395788</v>
       </c>
       <c r="J2" t="n">
         <v>142694.2606395788</v>
       </c>
       <c r="K2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="L2" t="n">
         <v>142694.2606395788</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
         <v>29404.49246814042</v>
       </c>
       <c r="D4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="E4" t="n">
         <v>29404.49246814041</v>
-      </c>
-      <c r="E4" t="n">
-        <v>29404.49246814042</v>
       </c>
       <c r="F4" t="n">
         <v>29404.49246814042</v>
@@ -26438,13 +26438,13 @@
         <v>29404.49246814042</v>
       </c>
       <c r="I4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29404.49246814042</v>
+      </c>
+      <c r="K4" t="n">
         <v>29404.49246814041</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29404.49246814041</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29404.49246814042</v>
       </c>
       <c r="L4" t="n">
         <v>29404.49246814042</v>
@@ -26453,13 +26453,13 @@
         <v>29404.49246814042</v>
       </c>
       <c r="N4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="O4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="P4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127034.8068001732</v>
+        <v>-127712.3356595672</v>
       </c>
       <c r="C6" t="n">
-        <v>47920.70309294084</v>
+        <v>47243.17423354686</v>
       </c>
       <c r="D6" t="n">
-        <v>47920.7030929409</v>
+        <v>47243.1742335468</v>
       </c>
       <c r="E6" t="n">
-        <v>81548.30309294087</v>
+        <v>80870.77423354682</v>
       </c>
       <c r="F6" t="n">
-        <v>81548.30309294087</v>
+        <v>80870.77423354682</v>
       </c>
       <c r="G6" t="n">
-        <v>81548.30309294087</v>
+        <v>80870.77423354679</v>
       </c>
       <c r="H6" t="n">
-        <v>81548.3030929409</v>
+        <v>80870.77423354676</v>
       </c>
       <c r="I6" t="n">
-        <v>81548.30309294087</v>
+        <v>80870.77423354685</v>
       </c>
       <c r="J6" t="n">
-        <v>-55046.49771295409</v>
+        <v>-55724.02657234822</v>
       </c>
       <c r="K6" t="n">
-        <v>81548.30309294093</v>
+        <v>80870.77423354679</v>
       </c>
       <c r="L6" t="n">
-        <v>81548.30309294084</v>
+        <v>80870.77423354679</v>
       </c>
       <c r="M6" t="n">
-        <v>81548.3030929409</v>
+        <v>80870.77423354685</v>
       </c>
       <c r="N6" t="n">
-        <v>81548.30309294084</v>
+        <v>80870.77423354682</v>
       </c>
       <c r="O6" t="n">
-        <v>81548.3030929409</v>
+        <v>80870.77423354685</v>
       </c>
       <c r="P6" t="n">
-        <v>81548.30309294081</v>
+        <v>80870.77423354682</v>
       </c>
     </row>
   </sheetData>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>338.0047407346341</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>209.2450561298663</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>203.2507825193993</v>
-      </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35260,13 +35260,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N9" t="n">
-        <v>506.6900639491207</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35494,13 +35494,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>14.48459394538821</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="P14" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N14" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>367.8628411009272</v>
       </c>
       <c r="M15" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>522.0635703700256</v>
@@ -35886,7 +35886,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
         <v>522.0635703700256</v>
@@ -35895,7 +35895,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>522.0635703700256</v>
@@ -35986,7 +35986,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N23" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O23" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>306.2096305948393</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>522.0635703700256</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>306.2096305948391</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O26" t="n">
-        <v>400.9092955204429</v>
       </c>
       <c r="P26" t="n">
         <v>522.0635703700256</v>
@@ -36618,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>474.8949538093264</v>
+      </c>
+      <c r="P27" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N27" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O27" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M29" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N29" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O29" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
@@ -36919,16 +36919,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>209.2450561298663</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>460.0037840019794</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O32" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>147.5918456237783</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>367.8628411009266</v>
+      </c>
+      <c r="P33" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N33" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O33" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="P35" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N35" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O35" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N36" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O36" t="n">
-        <v>179.3869557635729</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>209.2450561298658</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P39" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N41" t="n">
-        <v>203.2507825193993</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>474.8949538093259</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P44" t="n">
-        <v>400.9092955204429</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P45" t="n">
-        <v>506.6900639491207</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
